--- a/temp/templateteachers.xlsx
+++ b/temp/templateteachers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCDC75B-DC8A-4A6A-94AC-EBA8649126A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16BC0F-AEAA-4FBF-91B9-34E9CE25F7A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
   </bookViews>
@@ -63,15 +63,6 @@
     <t>Especialidad</t>
   </si>
   <si>
-    <t>Jose mamani</t>
-  </si>
-  <si>
-    <t>Jose tupo</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Av. Los angeles</t>
   </si>
   <si>
@@ -82,6 +73,15 @@
   </si>
   <si>
     <t>Computacion</t>
+  </si>
+  <si>
+    <t>Mamams</t>
+  </si>
+  <si>
+    <t>mmm</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6DA9A-814C-4995-A371-4356F22A5A66}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,31 +504,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>36527562</v>
+        <v>365275862</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2">
         <v>1651651</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/temp/templateteachers.xlsx
+++ b/temp/templateteachers.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16BC0F-AEAA-4FBF-91B9-34E9CE25F7A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9794B37-17FC-4C0D-8E1E-46ADE9BB08C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teacher" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgramIDS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>DNI</t>
   </si>
@@ -63,25 +64,37 @@
     <t>Especialidad</t>
   </si>
   <si>
-    <t>Av. Los angeles</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>ProgramID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Programa De Estudios</t>
+  </si>
+  <si>
+    <t>mecanica</t>
+  </si>
+  <si>
+    <t>compu</t>
+  </si>
+  <si>
+    <t>computacion</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Av. La calle</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
   </si>
   <si>
     <t>Superior</t>
   </si>
   <si>
-    <t>Computacion</t>
-  </si>
-  <si>
-    <t>Mamams</t>
-  </si>
-  <si>
-    <t>mmm</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>Mecanica automotris</t>
   </si>
 </sst>
 </file>
@@ -123,7 +136,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -441,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6DA9A-814C-4995-A371-4356F22A5A66}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,9 +475,10 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,38 +515,86 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>365275862</v>
+        <v>1651651</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
         <v>18</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>1651651</v>
+        <v>216516</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/temp/templateteachers.xlsx
+++ b/temp/templateteachers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9794B37-17FC-4C0D-8E1E-46ADE9BB08C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A77DD-E04F-46BB-8DA4-07371C0DE220}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="103">
   <si>
     <t>DNI</t>
   </si>
@@ -73,28 +73,268 @@
     <t>Programa De Estudios</t>
   </si>
   <si>
-    <t>mecanica</t>
-  </si>
-  <si>
-    <t>compu</t>
-  </si>
-  <si>
-    <t>computacion</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Av. La calle</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>Superior</t>
-  </si>
-  <si>
-    <t>Mecanica automotris</t>
+    <t>Computacion</t>
+  </si>
+  <si>
+    <t>Enfermeria Tecnica</t>
+  </si>
+  <si>
+    <t>Mecanica Agricola</t>
+  </si>
+  <si>
+    <t>Construccion Civil</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>Producción Agropecuaria</t>
+  </si>
+  <si>
+    <t>LOURDES ELCIRA</t>
+  </si>
+  <si>
+    <t>ROSA LUZ</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>EMILIANO</t>
+  </si>
+  <si>
+    <t>JESUS ARIAL</t>
+  </si>
+  <si>
+    <t>FRANCISCA</t>
+  </si>
+  <si>
+    <t>MARIA ANTONIETA</t>
+  </si>
+  <si>
+    <t>TORIBIO</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>BASILIDES</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
+    <t>CIPRIAN</t>
+  </si>
+  <si>
+    <t>ADELA</t>
+  </si>
+  <si>
+    <t>HERNAN</t>
+  </si>
+  <si>
+    <t>ARTURO SOTIL</t>
+  </si>
+  <si>
+    <t>JHON WILSON</t>
+  </si>
+  <si>
+    <t>JHON DARWIN</t>
+  </si>
+  <si>
+    <t>ZAIRA</t>
+  </si>
+  <si>
+    <t>CIELO LI</t>
+  </si>
+  <si>
+    <t>AMBROSIO</t>
+  </si>
+  <si>
+    <t>RUBEN</t>
+  </si>
+  <si>
+    <t>ELEAZAR</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>NILTON</t>
+  </si>
+  <si>
+    <t>MARGOT</t>
+  </si>
+  <si>
+    <t>NORMA</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>HABRAHAM</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>VILMA</t>
+  </si>
+  <si>
+    <t>ALVAREZ INFANTAS</t>
+  </si>
+  <si>
+    <t>JARA VILLANUEVA</t>
+  </si>
+  <si>
+    <t>CORNEJO PARDO</t>
+  </si>
+  <si>
+    <t>MENDOZA ZEVALLOS</t>
+  </si>
+  <si>
+    <t>ORTIZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>MOREANO HERENCIA</t>
+  </si>
+  <si>
+    <t>TECSI MENDOZA</t>
+  </si>
+  <si>
+    <t>CHULLUNQUIA CRUZ</t>
+  </si>
+  <si>
+    <t>GOMEZ NOBLEGA</t>
+  </si>
+  <si>
+    <t>VILLEGAS FARFAN</t>
+  </si>
+  <si>
+    <t>VARGAS ZARATE</t>
+  </si>
+  <si>
+    <t>TICONA MAMANI</t>
+  </si>
+  <si>
+    <t>POCCOHUANCA QUISPE</t>
+  </si>
+  <si>
+    <t>APAZA GALLEGOS</t>
+  </si>
+  <si>
+    <t>PALOMINO TUNQUI</t>
+  </si>
+  <si>
+    <t>HUALLPA CHONGA</t>
+  </si>
+  <si>
+    <t>BARRIENTOS HUAMAN</t>
+  </si>
+  <si>
+    <t>CHOQUEHUANCA  QUIÑONES</t>
+  </si>
+  <si>
+    <t>ZULOETA ZULOETA</t>
+  </si>
+  <si>
+    <t>HERRERA VARGAS</t>
+  </si>
+  <si>
+    <t>MAMANI CUTIPA</t>
+  </si>
+  <si>
+    <t>IMATA MAMANI</t>
+  </si>
+  <si>
+    <t>ROJAS CCUNO</t>
+  </si>
+  <si>
+    <t>SALAS CHAMBI</t>
+  </si>
+  <si>
+    <t>PORCEL BOLAÑOS</t>
+  </si>
+  <si>
+    <t>CARDENAS SUAREZ</t>
+  </si>
+  <si>
+    <t>HERRERA BALLENAS</t>
+  </si>
+  <si>
+    <t>MACEDO MAMANI</t>
+  </si>
+  <si>
+    <t>CALLE SALCEDO</t>
+  </si>
+  <si>
+    <t>CONDORI SUMIRE</t>
+  </si>
+  <si>
+    <t>CHINO LABRA</t>
+  </si>
+  <si>
+    <t>TICUÑA CRUZ</t>
+  </si>
+  <si>
+    <t>PARI HERENCIA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SICUANI</t>
+  </si>
+  <si>
+    <t>084-509207</t>
+  </si>
+  <si>
+    <t>NOMBRADO</t>
+  </si>
+  <si>
+    <t>CONTRATADO</t>
+  </si>
+  <si>
+    <t>MAESTRIA</t>
+  </si>
+  <si>
+    <t>BACHILLER</t>
+  </si>
+  <si>
+    <t>TITULADO</t>
+  </si>
+  <si>
+    <t>DOCTORADO</t>
+  </si>
+  <si>
+    <t>ENFERMERIA TECNICA</t>
+  </si>
+  <si>
+    <t>COMPUTACION E INFORMATICA</t>
+  </si>
+  <si>
+    <t>MECANICA AGRICOLA</t>
+  </si>
+  <si>
+    <t>TRANSVERSAL</t>
+  </si>
+  <si>
+    <t>PRODUCCION AGROPECUARIA</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD</t>
+  </si>
+  <si>
+    <t>CONSTRUCCION CIVIL</t>
   </si>
 </sst>
 </file>
@@ -455,26 +695,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,31 +761,1055 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1651651</v>
+        <v>24715639</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2">
+        <v>974200050</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24695832</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>984759949</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>216516</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>23920979</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4">
+        <v>984687483</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24711252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>984688524</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1981299</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23865084</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7">
+        <v>984734683</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23818322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>984412524</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24888274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>935519874</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>23836846</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>964397022</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>23850272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11">
+        <v>984668160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23804135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>984865559</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>23828904</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>984913186</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>24669793</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14">
+        <v>956797582</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>24715629</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15">
+        <v>984008102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>24714336</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16">
+        <v>984956807</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>24706940</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17">
+        <v>984551985</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>47594705</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18">
+        <v>966430659</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>45590106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19">
+        <v>986078390</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>46820501</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20">
+        <v>955117932</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>44735259</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21">
+        <v>974324108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23894927</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22">
+        <v>984234621</v>
+      </c>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>43471100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>984597647</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>47343522</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24">
+        <v>930874940</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>41107091</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25">
+        <v>984707725</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29449721</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26">
+        <v>984678898</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24711639</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27">
+        <v>984889133</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>41662183</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28">
+        <v>979719287</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7879756</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29">
+        <v>951488241</v>
+      </c>
+      <c r="H29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" t="s">
+        <v>99</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9547513</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30">
+        <v>984971783</v>
+      </c>
+      <c r="H30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>43255753</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31">
+        <v>976529653</v>
+      </c>
+      <c r="H31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>42114007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32">
+        <v>984422545</v>
+      </c>
+      <c r="H32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>43131866</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33">
+        <v>984830507</v>
+      </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>24707514</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34">
+        <v>961790002</v>
+      </c>
+      <c r="H34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,6 +1858,30 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp/templateteachers.xlsx
+++ b/temp/templateteachers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A77DD-E04F-46BB-8DA4-07371C0DE220}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126F1699-C1C9-463C-989B-EFE8C4455C2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
         <v>96</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>97</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>98</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>99</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>99</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>96</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>96</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>96</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>100</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>100</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>101</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1140,7 +1140,7 @@
         <v>101</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>99</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>97</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>97</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>97</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>97</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>96</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>96</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>102</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>102</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>102</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>101</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1588,7 +1588,7 @@
         <v>100</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>100</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>99</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
         <v>98</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>98</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1748,7 +1748,7 @@
         <v>98</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>98</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>96</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
